--- a/tables/table-5.xlsx
+++ b/tables/table-5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamem\bt-gate\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitaly\Desktop\bt-gate-test\bt-gate-srv\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A6B401-B5C7-41C4-B6D9-D76249BE7421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860A4D5F-262F-4221-8966-F26E2F3627D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="members" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ФИО</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Иванов3 Иван3 Иванович3</t>
+  </si>
+  <si>
+    <t>ник ник ник</t>
   </si>
 </sst>
 </file>
@@ -378,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,6 +437,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>79086366986</v>
+      </c>
+      <c r="C5">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
